--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CongViec\MyProjects\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC66CD9-4DD1-43E7-9FE7-0836A87CC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D527EEB-9F40-41B3-B0A3-181F212E9909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Nội dung chính</t>
+  </si>
+  <si>
+    <t>Hình thức:</t>
+  </si>
+  <si>
+    <t>Công khai:</t>
+  </si>
+  <si>
+    <t>Giai đoạn:</t>
   </si>
 </sst>
 </file>
@@ -488,18 +497,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,19 +553,25 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CongViec\MyProjects\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D527EEB-9F40-41B3-B0A3-181F212E9909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797EA284-835B-4F90-BA6F-67C1B1D83F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,19 +496,19 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="14" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\KNTC\SourceCode\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797EA284-835B-4F90-BA6F-67C1B1D83F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5331B-2CDB-4019-B793-B8567E15EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
@@ -496,8 +496,8 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\KNTC\SourceCode\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5331B-2CDB-4019-B793-B8567E15EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60DADCD-9F1B-46F1-890A-AD8A3BEF89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Giai đoạn:</t>
+  </si>
+  <si>
+    <t>Từ khóa:</t>
   </si>
 </sst>
 </file>
@@ -493,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716B53E-13F1-4440-95CF-2CF41ED2ADD4}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A1:XFD1048576"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,7 +537,9 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -576,49 +581,43 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
         <v>44567.625</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E13" s="9">
         <v>44567.625</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\KNTC\SourceCode\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60DADCD-9F1B-46F1-890A-AD8A3BEF89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$G$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +52,6 @@
     <t>Tiêu đề hồ sơ:</t>
   </si>
   <si>
-    <t>DANH SÁCH TỆP GẮN KỀM</t>
-  </si>
-  <si>
     <t>Tên tài liệu</t>
   </si>
   <si>
@@ -81,12 +80,15 @@
   </si>
   <si>
     <t>Từ khóa:</t>
+  </si>
+  <si>
+    <t>DANH SÁCH HỒ SƠ GẮN KỀM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -495,12 +497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716B53E-13F1-4440-95CF-2CF41ED2ADD4}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,7 +526,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -538,7 +540,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +561,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -567,7 +569,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -575,7 +577,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -586,40 +588,64 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9">
         <v>44567.625</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>44567.625</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A13:G13"/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:F3"/>

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$G$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>DANH SÁCH HỒ SƠ GẮN KỀM</t>
+  </si>
+  <si>
+    <t>Họ và tên người KN/TC:</t>
+  </si>
+  <si>
+    <t>Nội dung KN/TC:</t>
+  </si>
+  <si>
+    <t>UBND tỉnh Thái Nguyên</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Sở Tài nguyên và Môi trường Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +135,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -153,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,10 +212,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,157 +539,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F16" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G16" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9">
         <v>44567.625</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E17" s="9">
         <v>44567.625</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:G13"/>
-  <mergeCells count="2">
+  <autoFilter ref="A16:G16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
